--- a/Win32/Binaries/Table/fashion.xlsx
+++ b/Win32/Binaries/Table/fashion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,17 +14,17 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="公式" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="注释" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
   <si>
     <t>int</t>
   </si>
@@ -44,9 +44,6 @@
     <t>belong</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
@@ -86,13 +83,7 @@
     <t>火舞</t>
   </si>
   <si>
-    <t>image/bag/01backpak_goods_02icon.png</t>
-  </si>
-  <si>
     <t>冰霜</t>
-  </si>
-  <si>
-    <t>image/bag/01backpak_goods_03icon.png</t>
   </si>
   <si>
     <t>闪电</t>
@@ -187,60 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圣光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抑火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大飞时装1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大飞时装2</t>
-  </si>
-  <si>
-    <t>大飞时装3</t>
-  </si>
-  <si>
-    <t>大飞时装4</t>
-  </si>
-  <si>
-    <t>武松时装1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武松时装2</t>
-  </si>
-  <si>
-    <t>武松时装3</t>
-  </si>
-  <si>
-    <t>武松时装4</t>
-  </si>
-  <si>
     <t>属于哪个角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FashionRes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FashionOffset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,185 +202,252 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,0</t>
-    </r>
+    <t>燎原</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>FashionOffset</t>
+  </si>
+  <si>
+    <t>FashionZoder</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>天门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-6,0</t>
+    <t>蒹葭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#shizhuang2.png</t>
-  </si>
-  <si>
-    <t>#shizhuang1.png</t>
+    <t>碧水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#shizhuang3.png</t>
-  </si>
-  <si>
-    <t>#shizhuang4.png</t>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wusong_fashion1.png</t>
-    </r>
+    <t>金池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大飞时装5</t>
-  </si>
-  <si>
-    <t>大飞时装6</t>
-  </si>
-  <si>
-    <t>武松时装5</t>
-  </si>
-  <si>
-    <t>武松时装6</t>
-  </si>
-  <si>
-    <t>白糖时装6</t>
-  </si>
-  <si>
-    <t>白糖时装1</t>
-  </si>
-  <si>
-    <t>白糖时装1</t>
+    <t>洞庭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白糖时装2</t>
-  </si>
-  <si>
-    <t>白糖时装3</t>
-  </si>
-  <si>
-    <t>白糖时装4</t>
-  </si>
-  <si>
-    <t>白糖时装5</t>
-  </si>
-  <si>
-    <t>小青时装1</t>
-  </si>
-  <si>
-    <t>小青时装1</t>
+    <t>赤焰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小青时装2</t>
-  </si>
-  <si>
-    <t>小青时装3</t>
-  </si>
-  <si>
-    <t>小青时装4</t>
-  </si>
-  <si>
-    <t>小青时装5</t>
-  </si>
-  <si>
-    <t>小青时装6</t>
-  </si>
-  <si>
-    <t>荣耀</t>
-  </si>
-  <si>
-    <t>荣耀</t>
+    <t>青峦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>繁星</t>
-  </si>
-  <si>
-    <t>繁星</t>
+    <t>碧峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燎原</t>
-  </si>
-  <si>
-    <t>燎原</t>
+    <t>明月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炏炏</t>
-  </si>
-  <si>
-    <t>炏炏</t>
+    <t>沧海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>FashionRes</t>
-  </si>
-  <si>
-    <t>FashionOffset</t>
-  </si>
-  <si>
-    <t>FashionZoder</t>
-  </si>
-  <si>
-    <t>大飞时装1</t>
-  </si>
-  <si>
-    <t>#shizhuang1.png</t>
-  </si>
-  <si>
-    <t>#wusong_fashion1.png</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>闪电</t>
-  </si>
-  <si>
-    <t>圣光</t>
-  </si>
-  <si>
-    <t>心意</t>
-  </si>
-  <si>
-    <t>武松时装1</t>
-  </si>
-  <si>
-    <t>-6,0</t>
-  </si>
-  <si>
-    <t>残云</t>
-  </si>
-  <si>
-    <t>玄炎</t>
-  </si>
-  <si>
-    <t>抑火</t>
+    <t>萤火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅琊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彗星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大飞专属时装。晓披烟雾入青峦，山寺疏钟万木寒。</t>
+  </si>
+  <si>
+    <t>大飞专属时装。天门中断楚江开，碧水东流至此回。</t>
+  </si>
+  <si>
+    <t>大飞专属时装。巴江上峡重复重，阳台碧峭十二峰。</t>
+  </si>
+  <si>
+    <t>大飞专属时装。石门有雪无行迹，松壑凝烟满众香。</t>
+  </si>
+  <si>
+    <t>大飞专属时装。凭崖览八极，目尽长空闲。</t>
+  </si>
+  <si>
+    <t>大飞专属时装。后土化育兮四时行，修灵液养兮元气覆。</t>
+  </si>
+  <si>
+    <t>武松专属时装。汀芦处处飞萤火，照彻渔村饮不眠。</t>
+  </si>
+  <si>
+    <t>武松专属时装。积浪自生火，烈焰焚乾坤。</t>
+  </si>
+  <si>
+    <t>武松专属时装。烽火照西京，心中自不平。</t>
+  </si>
+  <si>
+    <t>武松专属时装。赤焰烧虏云，炎氛蒸塞空。</t>
+  </si>
+  <si>
+    <t>武松专属时装。红莲业火炼浊天，苍云覆雨倾世篇。</t>
+  </si>
+  <si>
+    <t>武松专属时装。野火燎原尘涨天，道闻马嘶不相得。</t>
+  </si>
+  <si>
+    <t>白糖专属时装。金戈铁马，气吞万里如虎。</t>
+  </si>
+  <si>
+    <t>白糖专属时装。银鞍照白马，飒沓如流星。</t>
+  </si>
+  <si>
+    <t>白糖专属时装。风雷鼓舞三千浪，易象飞龙定在天。</t>
+  </si>
+  <si>
+    <t>白糖专属时装。马作的卢飞快，弓如霹雳弦惊。</t>
+  </si>
+  <si>
+    <t>白糖专属时装。黑云压城城欲摧，甲光向日金鳞开。</t>
+  </si>
+  <si>
+    <t>白糖专属时装。彗星拂地浪连海，战鼓渡江尘涨天。</t>
+  </si>
+  <si>
+    <t>小青专属时装。所谓伊人，在水一方。</t>
+  </si>
+  <si>
+    <t>小青专属时装。天水碧，染就一江秋色。</t>
+  </si>
+  <si>
+    <t>小青专属时装。客来花雨际，秋水落金池。</t>
+  </si>
+  <si>
+    <t>小青专属时装。湖光秋月两相和，潭面无风镜未磨。</t>
+  </si>
+  <si>
+    <t>小青专属时装。春江潮水连海平，海上明月共潮生。</t>
+  </si>
+  <si>
+    <t>小青专属时装。乘风破浪会有时，直挂云帆济沧海。</t>
+  </si>
+  <si>
+    <t>青峦</t>
+  </si>
+  <si>
+    <t>天门</t>
+  </si>
+  <si>
+    <t>碧峰</t>
+  </si>
+  <si>
+    <t>琅琊</t>
+  </si>
+  <si>
+    <t>泰岳</t>
+  </si>
+  <si>
+    <t>后土</t>
+  </si>
+  <si>
+    <t>萤火</t>
+  </si>
+  <si>
+    <t>烈焰</t>
+  </si>
+  <si>
+    <t>烽火</t>
+  </si>
+  <si>
+    <t>赤焰</t>
+  </si>
+  <si>
+    <t>业火</t>
+  </si>
+  <si>
+    <t>金戈</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>风雷</t>
+  </si>
+  <si>
+    <t>霹雳</t>
+  </si>
+  <si>
+    <t>金鳞</t>
+  </si>
+  <si>
+    <t>彗星</t>
+  </si>
+  <si>
+    <t>蒹葭</t>
+  </si>
+  <si>
+    <t>碧水</t>
+  </si>
+  <si>
+    <t>金池</t>
+  </si>
+  <si>
+    <t>洞庭</t>
+  </si>
+  <si>
+    <t>明月</t>
+  </si>
+  <si>
+    <t>沧海</t>
   </si>
 </sst>
 </file>
@@ -495,13 +503,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,7 +537,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="期望属性"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="各属性战力划分"/>
       <sheetName val="全系统性价比"/>
       <sheetName val="裸属性"/>
       <sheetName val="装备属性分配"/>
@@ -539,11 +546,7 @@
       <sheetName val="韵纹"/>
       <sheetName val="佣兵"/>
       <sheetName val="时装"/>
-      <sheetName val="非付费"/>
-      <sheetName val="大R"/>
-      <sheetName val="极端情况1宝石"/>
-      <sheetName val="极端情况2佣兵"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="佣兵组合"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -559,32 +562,32 @@
         </row>
         <row r="25">
           <cell r="F25">
-            <v>0.8</v>
+            <v>0.77</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>0.8</v>
+            <v>0.77</v>
           </cell>
         </row>
         <row r="27">
           <cell r="F27">
-            <v>3.4000000000000002E-2</v>
+            <v>5.3999999999999999E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="F28">
-            <v>100</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="29">
           <cell r="F29">
-            <v>4.5</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="33">
           <cell r="F33">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -599,19 +602,19 @@
       <sheetData sheetId="9">
         <row r="50">
           <cell r="B50">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="C50">
             <v>0</v>
           </cell>
           <cell r="D50">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="E50">
             <v>0</v>
           </cell>
           <cell r="F50">
-            <v>6310</v>
+            <v>1316</v>
           </cell>
           <cell r="G50">
             <v>0</v>
@@ -628,16 +631,16 @@
             <v>0</v>
           </cell>
           <cell r="C51">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="D51">
             <v>0</v>
           </cell>
           <cell r="E51">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="F51">
-            <v>9465</v>
+            <v>1974</v>
           </cell>
           <cell r="G51">
             <v>0</v>
@@ -663,13 +666,13 @@
             <v>0</v>
           </cell>
           <cell r="F52">
-            <v>12620</v>
+            <v>2632</v>
           </cell>
           <cell r="G52">
             <v>0</v>
           </cell>
           <cell r="H52">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I52">
             <v>0</v>
@@ -689,13 +692,13 @@
             <v>0</v>
           </cell>
           <cell r="F53">
-            <v>18930</v>
+            <v>3948</v>
           </cell>
           <cell r="G53">
             <v>5</v>
           </cell>
           <cell r="H53">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I53">
             <v>0</v>
@@ -703,10 +706,10 @@
         </row>
         <row r="54">
           <cell r="B54">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="C54">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="D54">
             <v>0</v>
@@ -724,7 +727,7 @@
             <v>0</v>
           </cell>
           <cell r="I54">
-            <v>417</v>
+            <v>413</v>
           </cell>
         </row>
         <row r="55">
@@ -735,13 +738,13 @@
             <v>0</v>
           </cell>
           <cell r="D55">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="E55">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="F55">
-            <v>28395</v>
+            <v>5922</v>
           </cell>
           <cell r="G55">
             <v>0</v>
@@ -755,19 +758,19 @@
         </row>
         <row r="56">
           <cell r="B56">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="C56">
             <v>0</v>
           </cell>
           <cell r="D56">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="E56">
             <v>0</v>
           </cell>
           <cell r="F56">
-            <v>6310</v>
+            <v>1316</v>
           </cell>
           <cell r="G56">
             <v>0</v>
@@ -784,16 +787,16 @@
             <v>0</v>
           </cell>
           <cell r="C57">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="D57">
             <v>0</v>
           </cell>
           <cell r="E57">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="F57">
-            <v>9465</v>
+            <v>1974</v>
           </cell>
           <cell r="G57">
             <v>0</v>
@@ -819,13 +822,13 @@
             <v>0</v>
           </cell>
           <cell r="F58">
-            <v>12620</v>
+            <v>2632</v>
           </cell>
           <cell r="G58">
             <v>0</v>
           </cell>
           <cell r="H58">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I58">
             <v>0</v>
@@ -845,13 +848,13 @@
             <v>0</v>
           </cell>
           <cell r="F59">
-            <v>18930</v>
+            <v>3948</v>
           </cell>
           <cell r="G59">
             <v>5</v>
           </cell>
           <cell r="H59">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I59">
             <v>0</v>
@@ -859,10 +862,10 @@
         </row>
         <row r="60">
           <cell r="B60">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="C60">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="D60">
             <v>0</v>
@@ -880,7 +883,7 @@
             <v>0</v>
           </cell>
           <cell r="I60">
-            <v>417</v>
+            <v>413</v>
           </cell>
         </row>
         <row r="61">
@@ -891,13 +894,13 @@
             <v>0</v>
           </cell>
           <cell r="D61">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="E61">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="F61">
-            <v>28395</v>
+            <v>5922</v>
           </cell>
           <cell r="G61">
             <v>0</v>
@@ -911,19 +914,19 @@
         </row>
         <row r="62">
           <cell r="B62">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="C62">
             <v>0</v>
           </cell>
           <cell r="D62">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="E62">
             <v>0</v>
           </cell>
           <cell r="F62">
-            <v>6310</v>
+            <v>1316</v>
           </cell>
           <cell r="G62">
             <v>0</v>
@@ -940,16 +943,16 @@
             <v>0</v>
           </cell>
           <cell r="C63">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="D63">
             <v>0</v>
           </cell>
           <cell r="E63">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="F63">
-            <v>9465</v>
+            <v>1974</v>
           </cell>
           <cell r="G63">
             <v>0</v>
@@ -975,13 +978,13 @@
             <v>0</v>
           </cell>
           <cell r="F64">
-            <v>12620</v>
+            <v>2632</v>
           </cell>
           <cell r="G64">
             <v>0</v>
           </cell>
           <cell r="H64">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I64">
             <v>0</v>
@@ -1001,13 +1004,13 @@
             <v>0</v>
           </cell>
           <cell r="F65">
-            <v>18930</v>
+            <v>3948</v>
           </cell>
           <cell r="G65">
             <v>5</v>
           </cell>
           <cell r="H65">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I65">
             <v>0</v>
@@ -1015,10 +1018,10 @@
         </row>
         <row r="66">
           <cell r="B66">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="C66">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="D66">
             <v>0</v>
@@ -1036,7 +1039,7 @@
             <v>0</v>
           </cell>
           <cell r="I66">
-            <v>417</v>
+            <v>413</v>
           </cell>
         </row>
         <row r="67">
@@ -1047,13 +1050,13 @@
             <v>0</v>
           </cell>
           <cell r="D67">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="E67">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="F67">
-            <v>28395</v>
+            <v>5922</v>
           </cell>
           <cell r="G67">
             <v>0</v>
@@ -1067,19 +1070,19 @@
         </row>
         <row r="68">
           <cell r="B68">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="C68">
             <v>0</v>
           </cell>
           <cell r="D68">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="E68">
             <v>0</v>
           </cell>
           <cell r="F68">
-            <v>6310</v>
+            <v>1316</v>
           </cell>
           <cell r="G68">
             <v>0</v>
@@ -1096,16 +1099,16 @@
             <v>0</v>
           </cell>
           <cell r="C69">
-            <v>1112</v>
+            <v>164</v>
           </cell>
           <cell r="D69">
             <v>0</v>
           </cell>
           <cell r="E69">
-            <v>620</v>
+            <v>91</v>
           </cell>
           <cell r="F69">
-            <v>9465</v>
+            <v>1974</v>
           </cell>
           <cell r="G69">
             <v>0</v>
@@ -1131,13 +1134,13 @@
             <v>0</v>
           </cell>
           <cell r="F70">
-            <v>12620</v>
+            <v>2632</v>
           </cell>
           <cell r="G70">
             <v>0</v>
           </cell>
           <cell r="H70">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I70">
             <v>0</v>
@@ -1157,13 +1160,13 @@
             <v>0</v>
           </cell>
           <cell r="F71">
-            <v>18930</v>
+            <v>3948</v>
           </cell>
           <cell r="G71">
             <v>5</v>
           </cell>
           <cell r="H71">
-            <v>397</v>
+            <v>293</v>
           </cell>
           <cell r="I71">
             <v>0</v>
@@ -1171,10 +1174,10 @@
         </row>
         <row r="72">
           <cell r="B72">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="C72">
-            <v>1668</v>
+            <v>246</v>
           </cell>
           <cell r="D72">
             <v>0</v>
@@ -1192,7 +1195,7 @@
             <v>0</v>
           </cell>
           <cell r="I72">
-            <v>417</v>
+            <v>413</v>
           </cell>
         </row>
         <row r="73">
@@ -1203,13 +1206,13 @@
             <v>0</v>
           </cell>
           <cell r="D73">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="E73">
-            <v>930</v>
+            <v>136.5</v>
           </cell>
           <cell r="F73">
-            <v>28395</v>
+            <v>5922</v>
           </cell>
           <cell r="G73">
             <v>0</v>
@@ -1223,10 +1226,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1568,31 +1567,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U26"/>
+      <selection activeCell="Q21" sqref="Q21:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1606,58 +1603,52 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1679,10 +1670,10 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
@@ -1707,42 +1698,36 @@
         <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>90</v>
+        <v>41</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1751,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6310</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1774,61 +1759,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>1822</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3">
+      <c r="R3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="K4">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M4">
-        <v>620</v>
+        <v>1974</v>
       </c>
       <c r="N4">
-        <v>9465</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1837,48 +1816,42 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1929</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4">
+        <v>302</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1890,60 +1863,54 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2632</v>
       </c>
       <c r="N5">
-        <v>12620</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="P5">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>2215</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5">
+        <v>288</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
+      <c r="E6">
+        <v>4</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1955,66 +1922,60 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="N6">
-        <v>18930</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="P6">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>2930</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6">
+        <v>509</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
+      <c r="E7">
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7">
-        <v>3000</v>
+        <v>246</v>
       </c>
       <c r="J7">
-        <v>1668</v>
+        <v>246</v>
       </c>
       <c r="K7">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2029,66 +1990,60 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="Q7">
-        <v>417</v>
-      </c>
-      <c r="R7">
-        <v>5421</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7">
+        <v>848</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
+      <c r="E8">
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="L8">
-        <v>930</v>
+        <v>136.5</v>
       </c>
       <c r="M8">
-        <v>930</v>
+        <v>5922</v>
       </c>
       <c r="N8">
-        <v>28395</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2097,42 +2052,36 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>2453</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8">
+        <v>561</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>95</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2141,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6310</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2164,61 +2113,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>1822</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U9">
+      <c r="R9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="K10">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M10">
-        <v>620</v>
+        <v>1974</v>
       </c>
       <c r="N10">
-        <v>9465</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2227,48 +2170,42 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1929</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10">
+        <v>302</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2280,60 +2217,54 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2632</v>
       </c>
       <c r="N11">
-        <v>12620</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="P11">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>2215</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11">
+        <v>288</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>62</v>
+      <c r="E12">
+        <v>4</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2345,66 +2276,60 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="N12">
-        <v>18930</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="P12">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>2930</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U12">
+        <v>509</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
+      <c r="E13">
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I13">
-        <v>3000</v>
+        <v>246</v>
       </c>
       <c r="J13">
-        <v>1668</v>
+        <v>246</v>
       </c>
       <c r="K13">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2419,66 +2344,60 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="Q13">
-        <v>417</v>
-      </c>
-      <c r="R13">
-        <v>5421</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13">
+        <v>848</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="L14">
-        <v>930</v>
+        <v>136.5</v>
       </c>
       <c r="M14">
-        <v>930</v>
+        <v>5922</v>
       </c>
       <c r="N14">
-        <v>28395</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2487,42 +2406,36 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>2453</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14">
+        <v>561</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>301</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>95</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2531,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6310</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2554,61 +2467,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15">
-        <v>1822</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U15">
+      <c r="R15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>302</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I16">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="K16">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>620</v>
+        <v>1974</v>
       </c>
       <c r="N16">
-        <v>9465</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2617,48 +2524,42 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1929</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16">
+        <v>302</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>303</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
+      <c r="E17">
+        <v>3</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2670,60 +2571,54 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2632</v>
       </c>
       <c r="N17">
-        <v>12620</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="P17">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>2215</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U17">
+        <v>288</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>304</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2735,66 +2630,60 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="N18">
-        <v>18930</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="P18">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>2930</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U18">
+        <v>509</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>305</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
+      <c r="E19">
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I19">
-        <v>3000</v>
+        <v>246</v>
       </c>
       <c r="J19">
-        <v>1668</v>
+        <v>246</v>
       </c>
       <c r="K19">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2809,66 +2698,60 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="Q19">
-        <v>417</v>
-      </c>
-      <c r="R19">
-        <v>5421</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U19">
+        <v>848</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>306</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
+      <c r="E20">
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="L20">
-        <v>930</v>
+        <v>136.5</v>
       </c>
       <c r="M20">
-        <v>930</v>
+        <v>5922</v>
       </c>
       <c r="N20">
-        <v>28395</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2877,42 +2760,36 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>2453</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U20">
+        <v>561</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>401</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>95</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2921,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6310</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2944,61 +2821,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>1822</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21">
+      <c r="R21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>402</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I22">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="K22">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M22">
-        <v>620</v>
+        <v>1974</v>
       </c>
       <c r="N22">
-        <v>9465</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3007,48 +2878,42 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1929</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U22">
+        <v>302</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3060,60 +2925,54 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2632</v>
       </c>
       <c r="N23">
-        <v>12620</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="P23">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>2215</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U23">
+        <v>288</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>404</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
+      <c r="E24">
+        <v>4</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3125,66 +2984,60 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3948</v>
       </c>
       <c r="N24">
-        <v>18930</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="P24">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>2930</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U24">
+        <v>509</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>405</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I25">
-        <v>3000</v>
+        <v>246</v>
       </c>
       <c r="J25">
-        <v>1668</v>
+        <v>246</v>
       </c>
       <c r="K25">
-        <v>1668</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3199,66 +3052,60 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="Q25">
-        <v>417</v>
-      </c>
-      <c r="R25">
-        <v>5421</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U25">
+        <v>848</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>406</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>62</v>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I26">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="L26">
-        <v>930</v>
+        <v>136.5</v>
       </c>
       <c r="M26">
-        <v>930</v>
+        <v>5922</v>
       </c>
       <c r="N26">
-        <v>28395</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3267,18 +3114,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>2453</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U26">
+        <v>561</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26">
         <v>6</v>
       </c>
     </row>
@@ -3291,31 +3132,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="A1:U26"/>
+      <selection activeCell="Q3" sqref="Q3:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -3365,22 +3204,16 @@
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3391,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -3402,11 +3235,11 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -3430,1809 +3263,1660 @@
         <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f ca="1">[1]时装!B50</f>
+        <v>164</v>
       </c>
       <c r="J3">
-        <f ca="1">[1]时装!B50</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!C50</f>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f ca="1">[1]时装!C50</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D50</f>
+        <v>91</v>
       </c>
       <c r="L3">
-        <f ca="1">[1]时装!D50</f>
-        <v>620</v>
+        <f ca="1">[1]时装!E50</f>
+        <v>0</v>
       </c>
       <c r="M3">
-        <f ca="1">[1]时装!E50</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F50</f>
+        <v>1316</v>
       </c>
       <c r="N3">
-        <f ca="1">[1]时装!F50</f>
-        <v>6310</v>
+        <f ca="1">[1]时装!G50</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f ca="1">[1]时装!G50</f>
+        <f ca="1">[1]时装!H50</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f ca="1">[1]时装!H50</f>
+        <f ca="1">[1]时装!I50</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f ca="1">[1]时装!I50</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f ca="1">INT(J3*[1]期望属性!$F$23+K3*[1]期望属性!$F$24+L3*[1]期望属性!$F$25+M3*[1]期望属性!$F$26+N3*[1]期望属性!$F$27+O3*[1]期望属性!$F$28+P3*[1]期望属性!$F$29+Q3*[1]期望属性!$F$33)</f>
-        <v>1822</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3">
+        <f ca="1">INT(I3*[1]期望属性!$F$23+J3*[1]期望属性!$F$25+K3*[1]期望属性!$F$24+L3*[1]期望属性!$F$26+M3*[1]期望属性!$F$27+N3*[1]期望属性!$F$28+O3*[1]期望属性!$F$29+P3*[1]期望属性!$F$33)</f>
+        <v>326</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I4">
-        <v>500</v>
+        <f ca="1">[1]时装!B51</f>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f ca="1">[1]时装!B51</f>
-        <v>0</v>
+        <f ca="1">[1]时装!C51</f>
+        <v>164</v>
       </c>
       <c r="K4">
-        <f ca="1">[1]时装!C51</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!D51</f>
+        <v>0</v>
       </c>
       <c r="L4">
-        <f ca="1">[1]时装!D51</f>
-        <v>0</v>
+        <f ca="1">[1]时装!E51</f>
+        <v>91</v>
       </c>
       <c r="M4">
-        <f ca="1">[1]时装!E51</f>
-        <v>620</v>
+        <f ca="1">[1]时装!F51</f>
+        <v>1974</v>
       </c>
       <c r="N4">
-        <f ca="1">[1]时装!F51</f>
-        <v>9465</v>
+        <f ca="1">[1]时装!G51</f>
+        <v>0</v>
       </c>
       <c r="O4">
-        <f ca="1">[1]时装!G51</f>
+        <f ca="1">[1]时装!H51</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f ca="1">[1]时装!H51</f>
+        <f ca="1">[1]时装!I51</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f ca="1">[1]时装!I51</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f ca="1">INT(J4*[1]期望属性!$F$23+K4*[1]期望属性!$F$24+L4*[1]期望属性!$F$25+M4*[1]期望属性!$F$26+N4*[1]期望属性!$F$27+O4*[1]期望属性!$F$28+P4*[1]期望属性!$F$29+Q4*[1]期望属性!$F$33)</f>
-        <v>1929</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4">
+        <f ca="1">INT(I4*[1]期望属性!$F$23+J4*[1]期望属性!$F$25+K4*[1]期望属性!$F$24+L4*[1]期望属性!$F$26+M4*[1]期望属性!$F$27+N4*[1]期望属性!$F$28+O4*[1]期望属性!$F$29+P4*[1]期望属性!$F$33)</f>
+        <v>302</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <f ca="1">[1]时装!B52</f>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f ca="1">[1]时装!B52</f>
+        <f ca="1">[1]时装!C52</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f ca="1">[1]时装!C52</f>
+        <f ca="1">[1]时装!D52</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f ca="1">[1]时装!D52</f>
+        <f ca="1">[1]时装!E52</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f ca="1">[1]时装!E52</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F52</f>
+        <v>2632</v>
       </c>
       <c r="N5">
-        <f ca="1">[1]时装!F52</f>
-        <v>12620</v>
+        <f ca="1">[1]时装!G52</f>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f ca="1">[1]时装!G52</f>
-        <v>0</v>
+        <f ca="1">[1]时装!H52</f>
+        <v>293</v>
       </c>
       <c r="P5">
-        <f ca="1">[1]时装!H52</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I52</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f ca="1">[1]时装!I52</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f ca="1">INT(J5*[1]期望属性!$F$23+K5*[1]期望属性!$F$24+L5*[1]期望属性!$F$25+M5*[1]期望属性!$F$26+N5*[1]期望属性!$F$27+O5*[1]期望属性!$F$28+P5*[1]期望属性!$F$29+Q5*[1]期望属性!$F$33)</f>
-        <v>2215</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5">
+        <f ca="1">INT(I5*[1]期望属性!$F$23+J5*[1]期望属性!$F$25+K5*[1]期望属性!$F$24+L5*[1]期望属性!$F$26+M5*[1]期望属性!$F$27+N5*[1]期望属性!$F$28+O5*[1]期望属性!$F$29+P5*[1]期望属性!$F$33)</f>
+        <v>288</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
+      <c r="E6">
+        <v>4</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <f ca="1">[1]时装!B53</f>
+        <v>0</v>
       </c>
       <c r="J6">
-        <f ca="1">[1]时装!B53</f>
+        <f ca="1">[1]时装!C53</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f ca="1">[1]时装!C53</f>
+        <f ca="1">[1]时装!D53</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f ca="1">[1]时装!D53</f>
+        <f ca="1">[1]时装!E53</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f ca="1">[1]时装!E53</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F53</f>
+        <v>3948</v>
       </c>
       <c r="N6">
-        <f ca="1">[1]时装!F53</f>
-        <v>18930</v>
-      </c>
-      <c r="O6">
         <f ca="1">[1]时装!G53</f>
         <v>5</v>
       </c>
+      <c r="O6">
+        <f ca="1">[1]时装!H53</f>
+        <v>293</v>
+      </c>
       <c r="P6">
-        <f ca="1">[1]时装!H53</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I53</f>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f ca="1">[1]时装!I53</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f ca="1">INT(J6*[1]期望属性!$F$23+K6*[1]期望属性!$F$24+L6*[1]期望属性!$F$25+M6*[1]期望属性!$F$26+N6*[1]期望属性!$F$27+O6*[1]期望属性!$F$28+P6*[1]期望属性!$F$29+Q6*[1]期望属性!$F$33)</f>
-        <v>2930</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6">
+        <f ca="1">INT(I6*[1]期望属性!$F$23+J6*[1]期望属性!$F$25+K6*[1]期望属性!$F$24+L6*[1]期望属性!$F$26+M6*[1]期望属性!$F$27+N6*[1]期望属性!$F$28+O6*[1]期望属性!$F$29+P6*[1]期望属性!$F$33)</f>
+        <v>509</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
+      <c r="E7">
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7">
-        <v>3000</v>
+        <f ca="1">[1]时装!B54</f>
+        <v>246</v>
       </c>
       <c r="J7">
-        <f ca="1">[1]时装!B54</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!C54</f>
+        <v>246</v>
       </c>
       <c r="K7">
-        <f ca="1">[1]时装!C54</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!D54</f>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f ca="1">[1]时装!D54</f>
+        <f ca="1">[1]时装!E54</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f ca="1">[1]时装!E54</f>
+        <f ca="1">[1]时装!F54</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f ca="1">[1]时装!F54</f>
+        <f ca="1">[1]时装!G54</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f ca="1">[1]时装!G54</f>
+        <f ca="1">[1]时装!H54</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f ca="1">[1]时装!H54</f>
-        <v>0</v>
+        <f ca="1">[1]时装!I54</f>
+        <v>413</v>
       </c>
       <c r="Q7">
-        <f ca="1">[1]时装!I54</f>
-        <v>417</v>
-      </c>
-      <c r="R7">
-        <f ca="1">INT(J7*[1]期望属性!$F$23+K7*[1]期望属性!$F$24+L7*[1]期望属性!$F$25+M7*[1]期望属性!$F$26+N7*[1]期望属性!$F$27+O7*[1]期望属性!$F$28+P7*[1]期望属性!$F$29+Q7*[1]期望属性!$F$33)</f>
-        <v>5421</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7">
+        <f ca="1">INT(I7*[1]期望属性!$F$23+J7*[1]期望属性!$F$25+K7*[1]期望属性!$F$24+L7*[1]期望属性!$F$26+M7*[1]期望属性!$F$27+N7*[1]期望属性!$F$28+O7*[1]期望属性!$F$29+P7*[1]期望属性!$F$33)</f>
+        <v>848</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
+      <c r="E8">
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I8">
-        <v>5000</v>
+        <f ca="1">[1]时装!B55</f>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f ca="1">[1]时装!B55</f>
+        <f ca="1">[1]时装!C55</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f ca="1">[1]时装!C55</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D55</f>
+        <v>136.5</v>
       </c>
       <c r="L8">
-        <f ca="1">[1]时装!D55</f>
-        <v>930</v>
+        <f ca="1">[1]时装!E55</f>
+        <v>136.5</v>
       </c>
       <c r="M8">
-        <f ca="1">[1]时装!E55</f>
-        <v>930</v>
+        <f ca="1">[1]时装!F55</f>
+        <v>5922</v>
       </c>
       <c r="N8">
-        <f ca="1">[1]时装!F55</f>
-        <v>28395</v>
+        <f ca="1">[1]时装!G55</f>
+        <v>0</v>
       </c>
       <c r="O8">
-        <f ca="1">[1]时装!G55</f>
+        <f ca="1">[1]时装!H55</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f ca="1">[1]时装!H55</f>
+        <f ca="1">[1]时装!I55</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f ca="1">[1]时装!I55</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f ca="1">INT(J8*[1]期望属性!$F$23+K8*[1]期望属性!$F$24+L8*[1]期望属性!$F$25+M8*[1]期望属性!$F$26+N8*[1]期望属性!$F$27+O8*[1]期望属性!$F$28+P8*[1]期望属性!$F$29+Q8*[1]期望属性!$F$33)</f>
-        <v>2453</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8">
+        <f ca="1">INT(I8*[1]期望属性!$F$23+J8*[1]期望属性!$F$25+K8*[1]期望属性!$F$24+L8*[1]期望属性!$F$26+M8*[1]期望属性!$F$27+N8*[1]期望属性!$F$28+O8*[1]期望属性!$F$29+P8*[1]期望属性!$F$33)</f>
+        <v>561</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f ca="1">[1]时装!B56</f>
+        <v>164</v>
       </c>
       <c r="J9">
-        <f ca="1">[1]时装!B56</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!C56</f>
+        <v>0</v>
       </c>
       <c r="K9">
-        <f ca="1">[1]时装!C56</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D56</f>
+        <v>91</v>
       </c>
       <c r="L9">
-        <f ca="1">[1]时装!D56</f>
-        <v>620</v>
+        <f ca="1">[1]时装!E56</f>
+        <v>0</v>
       </c>
       <c r="M9">
-        <f ca="1">[1]时装!E56</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F56</f>
+        <v>1316</v>
       </c>
       <c r="N9">
-        <f ca="1">[1]时装!F56</f>
-        <v>6310</v>
+        <f ca="1">[1]时装!G56</f>
+        <v>0</v>
       </c>
       <c r="O9">
-        <f ca="1">[1]时装!G56</f>
+        <f ca="1">[1]时装!H56</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f ca="1">[1]时装!H56</f>
+        <f ca="1">[1]时装!I56</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f ca="1">[1]时装!I56</f>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f ca="1">INT(J9*[1]期望属性!$F$23+K9*[1]期望属性!$F$24+L9*[1]期望属性!$F$25+M9*[1]期望属性!$F$26+N9*[1]期望属性!$F$27+O9*[1]期望属性!$F$28+P9*[1]期望属性!$F$29+Q9*[1]期望属性!$F$33)</f>
-        <v>1822</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U9">
+        <f ca="1">INT(I9*[1]期望属性!$F$23+J9*[1]期望属性!$F$25+K9*[1]期望属性!$F$24+L9*[1]期望属性!$F$26+M9*[1]期望属性!$F$27+N9*[1]期望属性!$F$28+O9*[1]期望属性!$F$29+P9*[1]期望属性!$F$33)</f>
+        <v>326</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <f ca="1">[1]时装!B57</f>
+        <v>0</v>
       </c>
       <c r="J10">
-        <f ca="1">[1]时装!B57</f>
-        <v>0</v>
+        <f ca="1">[1]时装!C57</f>
+        <v>164</v>
       </c>
       <c r="K10">
-        <f ca="1">[1]时装!C57</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!D57</f>
+        <v>0</v>
       </c>
       <c r="L10">
-        <f ca="1">[1]时装!D57</f>
-        <v>0</v>
+        <f ca="1">[1]时装!E57</f>
+        <v>91</v>
       </c>
       <c r="M10">
-        <f ca="1">[1]时装!E57</f>
-        <v>620</v>
+        <f ca="1">[1]时装!F57</f>
+        <v>1974</v>
       </c>
       <c r="N10">
-        <f ca="1">[1]时装!F57</f>
-        <v>9465</v>
+        <f ca="1">[1]时装!G57</f>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f ca="1">[1]时装!G57</f>
+        <f ca="1">[1]时装!H57</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f ca="1">[1]时装!H57</f>
+        <f ca="1">[1]时装!I57</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f ca="1">[1]时装!I57</f>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f ca="1">INT(J10*[1]期望属性!$F$23+K10*[1]期望属性!$F$24+L10*[1]期望属性!$F$25+M10*[1]期望属性!$F$26+N10*[1]期望属性!$F$27+O10*[1]期望属性!$F$28+P10*[1]期望属性!$F$29+Q10*[1]期望属性!$F$33)</f>
-        <v>1929</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10">
+        <f ca="1">INT(I10*[1]期望属性!$F$23+J10*[1]期望属性!$F$25+K10*[1]期望属性!$F$24+L10*[1]期望属性!$F$26+M10*[1]期望属性!$F$27+N10*[1]期望属性!$F$28+O10*[1]期望属性!$F$29+P10*[1]期望属性!$F$33)</f>
+        <v>302</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <f ca="1">[1]时装!B58</f>
+        <v>0</v>
       </c>
       <c r="J11">
-        <f ca="1">[1]时装!B58</f>
+        <f ca="1">[1]时装!C58</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f ca="1">[1]时装!C58</f>
+        <f ca="1">[1]时装!D58</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f ca="1">[1]时装!D58</f>
+        <f ca="1">[1]时装!E58</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f ca="1">[1]时装!E58</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F58</f>
+        <v>2632</v>
       </c>
       <c r="N11">
-        <f ca="1">[1]时装!F58</f>
-        <v>12620</v>
+        <f ca="1">[1]时装!G58</f>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f ca="1">[1]时装!G58</f>
-        <v>0</v>
+        <f ca="1">[1]时装!H58</f>
+        <v>293</v>
       </c>
       <c r="P11">
-        <f ca="1">[1]时装!H58</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I58</f>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <f ca="1">[1]时装!I58</f>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f ca="1">INT(J11*[1]期望属性!$F$23+K11*[1]期望属性!$F$24+L11*[1]期望属性!$F$25+M11*[1]期望属性!$F$26+N11*[1]期望属性!$F$27+O11*[1]期望属性!$F$28+P11*[1]期望属性!$F$29+Q11*[1]期望属性!$F$33)</f>
-        <v>2215</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11">
+        <f ca="1">INT(I11*[1]期望属性!$F$23+J11*[1]期望属性!$F$25+K11*[1]期望属性!$F$24+L11*[1]期望属性!$F$26+M11*[1]期望属性!$F$27+N11*[1]期望属性!$F$28+O11*[1]期望属性!$F$29+P11*[1]期望属性!$F$33)</f>
+        <v>288</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>62</v>
+      <c r="E12">
+        <v>4</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <f ca="1">[1]时装!B59</f>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f ca="1">[1]时装!B59</f>
+        <f ca="1">[1]时装!C59</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f ca="1">[1]时装!C59</f>
+        <f ca="1">[1]时装!D59</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f ca="1">[1]时装!D59</f>
+        <f ca="1">[1]时装!E59</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f ca="1">[1]时装!E59</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F59</f>
+        <v>3948</v>
       </c>
       <c r="N12">
-        <f ca="1">[1]时装!F59</f>
-        <v>18930</v>
-      </c>
-      <c r="O12">
         <f ca="1">[1]时装!G59</f>
         <v>5</v>
       </c>
+      <c r="O12">
+        <f ca="1">[1]时装!H59</f>
+        <v>293</v>
+      </c>
       <c r="P12">
-        <f ca="1">[1]时装!H59</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I59</f>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f ca="1">[1]时装!I59</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f ca="1">INT(J12*[1]期望属性!$F$23+K12*[1]期望属性!$F$24+L12*[1]期望属性!$F$25+M12*[1]期望属性!$F$26+N12*[1]期望属性!$F$27+O12*[1]期望属性!$F$28+P12*[1]期望属性!$F$29+Q12*[1]期望属性!$F$33)</f>
-        <v>2930</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12">
+        <f ca="1">INT(I12*[1]期望属性!$F$23+J12*[1]期望属性!$F$25+K12*[1]期望属性!$F$24+L12*[1]期望属性!$F$26+M12*[1]期望属性!$F$27+N12*[1]期望属性!$F$28+O12*[1]期望属性!$F$29+P12*[1]期望属性!$F$33)</f>
+        <v>509</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
+      <c r="E13">
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I13">
-        <v>3000</v>
+        <f ca="1">[1]时装!B60</f>
+        <v>246</v>
       </c>
       <c r="J13">
-        <f ca="1">[1]时装!B60</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!C60</f>
+        <v>246</v>
       </c>
       <c r="K13">
-        <f ca="1">[1]时装!C60</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!D60</f>
+        <v>0</v>
       </c>
       <c r="L13">
-        <f ca="1">[1]时装!D60</f>
+        <f ca="1">[1]时装!E60</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f ca="1">[1]时装!E60</f>
+        <f ca="1">[1]时装!F60</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f ca="1">[1]时装!F60</f>
+        <f ca="1">[1]时装!G60</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f ca="1">[1]时装!G60</f>
+        <f ca="1">[1]时装!H60</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f ca="1">[1]时装!H60</f>
-        <v>0</v>
+        <f ca="1">[1]时装!I60</f>
+        <v>413</v>
       </c>
       <c r="Q13">
-        <f ca="1">[1]时装!I60</f>
-        <v>417</v>
-      </c>
-      <c r="R13">
-        <f ca="1">INT(J13*[1]期望属性!$F$23+K13*[1]期望属性!$F$24+L13*[1]期望属性!$F$25+M13*[1]期望属性!$F$26+N13*[1]期望属性!$F$27+O13*[1]期望属性!$F$28+P13*[1]期望属性!$F$29+Q13*[1]期望属性!$F$33)</f>
-        <v>5421</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13">
+        <f ca="1">INT(I13*[1]期望属性!$F$23+J13*[1]期望属性!$F$25+K13*[1]期望属性!$F$24+L13*[1]期望属性!$F$26+M13*[1]期望属性!$F$27+N13*[1]期望属性!$F$28+O13*[1]期望属性!$F$29+P13*[1]期望属性!$F$33)</f>
+        <v>848</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
+      <c r="E14">
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <f ca="1">[1]时装!B61</f>
+        <v>0</v>
       </c>
       <c r="J14">
-        <f ca="1">[1]时装!B61</f>
+        <f ca="1">[1]时装!C61</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f ca="1">[1]时装!C61</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D61</f>
+        <v>136.5</v>
       </c>
       <c r="L14">
-        <f ca="1">[1]时装!D61</f>
-        <v>930</v>
+        <f ca="1">[1]时装!E61</f>
+        <v>136.5</v>
       </c>
       <c r="M14">
-        <f ca="1">[1]时装!E61</f>
-        <v>930</v>
+        <f ca="1">[1]时装!F61</f>
+        <v>5922</v>
       </c>
       <c r="N14">
-        <f ca="1">[1]时装!F61</f>
-        <v>28395</v>
+        <f ca="1">[1]时装!G61</f>
+        <v>0</v>
       </c>
       <c r="O14">
-        <f ca="1">[1]时装!G61</f>
+        <f ca="1">[1]时装!H61</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f ca="1">[1]时装!H61</f>
+        <f ca="1">[1]时装!I61</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f ca="1">[1]时装!I61</f>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f ca="1">INT(J14*[1]期望属性!$F$23+K14*[1]期望属性!$F$24+L14*[1]期望属性!$F$25+M14*[1]期望属性!$F$26+N14*[1]期望属性!$F$27+O14*[1]期望属性!$F$28+P14*[1]期望属性!$F$29+Q14*[1]期望属性!$F$33)</f>
-        <v>2453</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14">
+        <f ca="1">INT(I14*[1]期望属性!$F$23+J14*[1]期望属性!$F$25+K14*[1]期望属性!$F$24+L14*[1]期望属性!$F$26+M14*[1]期望属性!$F$27+N14*[1]期望属性!$F$28+O14*[1]期望属性!$F$29+P14*[1]期望属性!$F$33)</f>
+        <v>561</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>301</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <f ca="1">[1]时装!B62</f>
+        <v>164</v>
       </c>
       <c r="J15">
-        <f ca="1">[1]时装!B62</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!C62</f>
+        <v>0</v>
       </c>
       <c r="K15">
-        <f ca="1">[1]时装!C62</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D62</f>
+        <v>91</v>
       </c>
       <c r="L15">
-        <f ca="1">[1]时装!D62</f>
-        <v>620</v>
+        <f ca="1">[1]时装!E62</f>
+        <v>0</v>
       </c>
       <c r="M15">
-        <f ca="1">[1]时装!E62</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F62</f>
+        <v>1316</v>
       </c>
       <c r="N15">
-        <f ca="1">[1]时装!F62</f>
-        <v>6310</v>
+        <f ca="1">[1]时装!G62</f>
+        <v>0</v>
       </c>
       <c r="O15">
-        <f ca="1">[1]时装!G62</f>
+        <f ca="1">[1]时装!H62</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f ca="1">[1]时装!H62</f>
+        <f ca="1">[1]时装!I62</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f ca="1">[1]时装!I62</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f ca="1">INT(J15*[1]期望属性!$F$23+K15*[1]期望属性!$F$24+L15*[1]期望属性!$F$25+M15*[1]期望属性!$F$26+N15*[1]期望属性!$F$27+O15*[1]期望属性!$F$28+P15*[1]期望属性!$F$29+Q15*[1]期望属性!$F$33)</f>
-        <v>1822</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U15">
+        <f ca="1">INT(I15*[1]期望属性!$F$23+J15*[1]期望属性!$F$25+K15*[1]期望属性!$F$24+L15*[1]期望属性!$F$26+M15*[1]期望属性!$F$27+N15*[1]期望属性!$F$28+O15*[1]期望属性!$F$29+P15*[1]期望属性!$F$33)</f>
+        <v>326</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>302</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I16">
-        <v>500</v>
+        <f ca="1">[1]时装!B63</f>
+        <v>0</v>
       </c>
       <c r="J16">
-        <f ca="1">[1]时装!B63</f>
-        <v>0</v>
+        <f ca="1">[1]时装!C63</f>
+        <v>164</v>
       </c>
       <c r="K16">
-        <f ca="1">[1]时装!C63</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!D63</f>
+        <v>0</v>
       </c>
       <c r="L16">
-        <f ca="1">[1]时装!D63</f>
-        <v>0</v>
+        <f ca="1">[1]时装!E63</f>
+        <v>91</v>
       </c>
       <c r="M16">
-        <f ca="1">[1]时装!E63</f>
-        <v>620</v>
+        <f ca="1">[1]时装!F63</f>
+        <v>1974</v>
       </c>
       <c r="N16">
-        <f ca="1">[1]时装!F63</f>
-        <v>9465</v>
+        <f ca="1">[1]时装!G63</f>
+        <v>0</v>
       </c>
       <c r="O16">
-        <f ca="1">[1]时装!G63</f>
+        <f ca="1">[1]时装!H63</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f ca="1">[1]时装!H63</f>
+        <f ca="1">[1]时装!I63</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f ca="1">[1]时装!I63</f>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f ca="1">INT(J16*[1]期望属性!$F$23+K16*[1]期望属性!$F$24+L16*[1]期望属性!$F$25+M16*[1]期望属性!$F$26+N16*[1]期望属性!$F$27+O16*[1]期望属性!$F$28+P16*[1]期望属性!$F$29+Q16*[1]期望属性!$F$33)</f>
-        <v>1929</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U16">
+        <f ca="1">INT(I16*[1]期望属性!$F$23+J16*[1]期望属性!$F$25+K16*[1]期望属性!$F$24+L16*[1]期望属性!$F$26+M16*[1]期望属性!$F$27+N16*[1]期望属性!$F$28+O16*[1]期望属性!$F$29+P16*[1]期望属性!$F$33)</f>
+        <v>302</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>303</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
+      <c r="E17">
+        <v>3</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <f ca="1">[1]时装!B64</f>
+        <v>0</v>
       </c>
       <c r="J17">
-        <f ca="1">[1]时装!B64</f>
+        <f ca="1">[1]时装!C64</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f ca="1">[1]时装!C64</f>
+        <f ca="1">[1]时装!D64</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f ca="1">[1]时装!D64</f>
+        <f ca="1">[1]时装!E64</f>
         <v>0</v>
       </c>
       <c r="M17">
-        <f ca="1">[1]时装!E64</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F64</f>
+        <v>2632</v>
       </c>
       <c r="N17">
-        <f ca="1">[1]时装!F64</f>
-        <v>12620</v>
+        <f ca="1">[1]时装!G64</f>
+        <v>0</v>
       </c>
       <c r="O17">
-        <f ca="1">[1]时装!G64</f>
-        <v>0</v>
+        <f ca="1">[1]时装!H64</f>
+        <v>293</v>
       </c>
       <c r="P17">
-        <f ca="1">[1]时装!H64</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I64</f>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <f ca="1">[1]时装!I64</f>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f ca="1">INT(J17*[1]期望属性!$F$23+K17*[1]期望属性!$F$24+L17*[1]期望属性!$F$25+M17*[1]期望属性!$F$26+N17*[1]期望属性!$F$27+O17*[1]期望属性!$F$28+P17*[1]期望属性!$F$29+Q17*[1]期望属性!$F$33)</f>
-        <v>2215</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U17">
+        <f ca="1">INT(I17*[1]期望属性!$F$23+J17*[1]期望属性!$F$25+K17*[1]期望属性!$F$24+L17*[1]期望属性!$F$26+M17*[1]期望属性!$F$27+N17*[1]期望属性!$F$28+O17*[1]期望属性!$F$29+P17*[1]期望属性!$F$33)</f>
+        <v>288</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>304</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <f ca="1">[1]时装!B65</f>
+        <v>0</v>
       </c>
       <c r="J18">
-        <f ca="1">[1]时装!B65</f>
+        <f ca="1">[1]时装!C65</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f ca="1">[1]时装!C65</f>
+        <f ca="1">[1]时装!D65</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f ca="1">[1]时装!D65</f>
+        <f ca="1">[1]时装!E65</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f ca="1">[1]时装!E65</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F65</f>
+        <v>3948</v>
       </c>
       <c r="N18">
-        <f ca="1">[1]时装!F65</f>
-        <v>18930</v>
-      </c>
-      <c r="O18">
         <f ca="1">[1]时装!G65</f>
         <v>5</v>
       </c>
+      <c r="O18">
+        <f ca="1">[1]时装!H65</f>
+        <v>293</v>
+      </c>
       <c r="P18">
-        <f ca="1">[1]时装!H65</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I65</f>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <f ca="1">[1]时装!I65</f>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f ca="1">INT(J18*[1]期望属性!$F$23+K18*[1]期望属性!$F$24+L18*[1]期望属性!$F$25+M18*[1]期望属性!$F$26+N18*[1]期望属性!$F$27+O18*[1]期望属性!$F$28+P18*[1]期望属性!$F$29+Q18*[1]期望属性!$F$33)</f>
-        <v>2930</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18">
+        <f ca="1">INT(I18*[1]期望属性!$F$23+J18*[1]期望属性!$F$25+K18*[1]期望属性!$F$24+L18*[1]期望属性!$F$26+M18*[1]期望属性!$F$27+N18*[1]期望属性!$F$28+O18*[1]期望属性!$F$29+P18*[1]期望属性!$F$33)</f>
+        <v>509</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>305</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
+      <c r="E19">
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I19">
-        <v>3000</v>
+        <f ca="1">[1]时装!B66</f>
+        <v>246</v>
       </c>
       <c r="J19">
-        <f ca="1">[1]时装!B66</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!C66</f>
+        <v>246</v>
       </c>
       <c r="K19">
-        <f ca="1">[1]时装!C66</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!D66</f>
+        <v>0</v>
       </c>
       <c r="L19">
-        <f ca="1">[1]时装!D66</f>
+        <f ca="1">[1]时装!E66</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f ca="1">[1]时装!E66</f>
+        <f ca="1">[1]时装!F66</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f ca="1">[1]时装!F66</f>
+        <f ca="1">[1]时装!G66</f>
         <v>0</v>
       </c>
       <c r="O19">
-        <f ca="1">[1]时装!G66</f>
+        <f ca="1">[1]时装!H66</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <f ca="1">[1]时装!H66</f>
-        <v>0</v>
+        <f ca="1">[1]时装!I66</f>
+        <v>413</v>
       </c>
       <c r="Q19">
-        <f ca="1">[1]时装!I66</f>
-        <v>417</v>
-      </c>
-      <c r="R19">
-        <f ca="1">INT(J19*[1]期望属性!$F$23+K19*[1]期望属性!$F$24+L19*[1]期望属性!$F$25+M19*[1]期望属性!$F$26+N19*[1]期望属性!$F$27+O19*[1]期望属性!$F$28+P19*[1]期望属性!$F$29+Q19*[1]期望属性!$F$33)</f>
-        <v>5421</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U19">
+        <f ca="1">INT(I19*[1]期望属性!$F$23+J19*[1]期望属性!$F$25+K19*[1]期望属性!$F$24+L19*[1]期望属性!$F$26+M19*[1]期望属性!$F$27+N19*[1]期望属性!$F$28+O19*[1]期望属性!$F$29+P19*[1]期望属性!$F$33)</f>
+        <v>848</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>306</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
+      <c r="E20">
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <f ca="1">[1]时装!B67</f>
+        <v>0</v>
       </c>
       <c r="J20">
-        <f ca="1">[1]时装!B67</f>
+        <f ca="1">[1]时装!C67</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f ca="1">[1]时装!C67</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D67</f>
+        <v>136.5</v>
       </c>
       <c r="L20">
-        <f ca="1">[1]时装!D67</f>
-        <v>930</v>
+        <f ca="1">[1]时装!E67</f>
+        <v>136.5</v>
       </c>
       <c r="M20">
-        <f ca="1">[1]时装!E67</f>
-        <v>930</v>
+        <f ca="1">[1]时装!F67</f>
+        <v>5922</v>
       </c>
       <c r="N20">
-        <f ca="1">[1]时装!F67</f>
-        <v>28395</v>
+        <f ca="1">[1]时装!G67</f>
+        <v>0</v>
       </c>
       <c r="O20">
-        <f ca="1">[1]时装!G67</f>
+        <f ca="1">[1]时装!H67</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f ca="1">[1]时装!H67</f>
+        <f ca="1">[1]时装!I67</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f ca="1">[1]时装!I67</f>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f ca="1">INT(J20*[1]期望属性!$F$23+K20*[1]期望属性!$F$24+L20*[1]期望属性!$F$25+M20*[1]期望属性!$F$26+N20*[1]期望属性!$F$27+O20*[1]期望属性!$F$28+P20*[1]期望属性!$F$29+Q20*[1]期望属性!$F$33)</f>
-        <v>2453</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20">
+        <f ca="1">INT(I20*[1]期望属性!$F$23+J20*[1]期望属性!$F$25+K20*[1]期望属性!$F$24+L20*[1]期望属性!$F$26+M20*[1]期望属性!$F$27+N20*[1]期望属性!$F$28+O20*[1]期望属性!$F$29+P20*[1]期望属性!$F$33)</f>
+        <v>561</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>401</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <f ca="1">[1]时装!B68</f>
+        <v>164</v>
       </c>
       <c r="J21">
-        <f ca="1">[1]时装!B68</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!C68</f>
+        <v>0</v>
       </c>
       <c r="K21">
-        <f ca="1">[1]时装!C68</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D68</f>
+        <v>91</v>
       </c>
       <c r="L21">
-        <f ca="1">[1]时装!D68</f>
-        <v>620</v>
+        <f ca="1">[1]时装!E68</f>
+        <v>0</v>
       </c>
       <c r="M21">
-        <f ca="1">[1]时装!E68</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F68</f>
+        <v>1316</v>
       </c>
       <c r="N21">
-        <f ca="1">[1]时装!F68</f>
-        <v>6310</v>
+        <f ca="1">[1]时装!G68</f>
+        <v>0</v>
       </c>
       <c r="O21">
-        <f ca="1">[1]时装!G68</f>
+        <f ca="1">[1]时装!H68</f>
         <v>0</v>
       </c>
       <c r="P21">
-        <f ca="1">[1]时装!H68</f>
+        <f ca="1">[1]时装!I68</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f ca="1">[1]时装!I68</f>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f ca="1">INT(J21*[1]期望属性!$F$23+K21*[1]期望属性!$F$24+L21*[1]期望属性!$F$25+M21*[1]期望属性!$F$26+N21*[1]期望属性!$F$27+O21*[1]期望属性!$F$28+P21*[1]期望属性!$F$29+Q21*[1]期望属性!$F$33)</f>
-        <v>1822</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U21">
+        <f ca="1">INT(I21*[1]期望属性!$F$23+J21*[1]期望属性!$F$25+K21*[1]期望属性!$F$24+L21*[1]期望属性!$F$26+M21*[1]期望属性!$F$27+N21*[1]期望属性!$F$28+O21*[1]期望属性!$F$29+P21*[1]期望属性!$F$33)</f>
+        <v>326</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>402</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="I22">
-        <v>500</v>
+        <f ca="1">[1]时装!B69</f>
+        <v>0</v>
       </c>
       <c r="J22">
-        <f ca="1">[1]时装!B69</f>
-        <v>0</v>
+        <f ca="1">[1]时装!C69</f>
+        <v>164</v>
       </c>
       <c r="K22">
-        <f ca="1">[1]时装!C69</f>
-        <v>1112</v>
+        <f ca="1">[1]时装!D69</f>
+        <v>0</v>
       </c>
       <c r="L22">
-        <f ca="1">[1]时装!D69</f>
-        <v>0</v>
+        <f ca="1">[1]时装!E69</f>
+        <v>91</v>
       </c>
       <c r="M22">
-        <f ca="1">[1]时装!E69</f>
-        <v>620</v>
+        <f ca="1">[1]时装!F69</f>
+        <v>1974</v>
       </c>
       <c r="N22">
-        <f ca="1">[1]时装!F69</f>
-        <v>9465</v>
+        <f ca="1">[1]时装!G69</f>
+        <v>0</v>
       </c>
       <c r="O22">
-        <f ca="1">[1]时装!G69</f>
+        <f ca="1">[1]时装!H69</f>
         <v>0</v>
       </c>
       <c r="P22">
-        <f ca="1">[1]时装!H69</f>
+        <f ca="1">[1]时装!I69</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f ca="1">[1]时装!I69</f>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f ca="1">INT(J22*[1]期望属性!$F$23+K22*[1]期望属性!$F$24+L22*[1]期望属性!$F$25+M22*[1]期望属性!$F$26+N22*[1]期望属性!$F$27+O22*[1]期望属性!$F$28+P22*[1]期望属性!$F$29+Q22*[1]期望属性!$F$33)</f>
-        <v>1929</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22">
+        <f ca="1">INT(I22*[1]期望属性!$F$23+J22*[1]期望属性!$F$25+K22*[1]期望属性!$F$24+L22*[1]期望属性!$F$26+M22*[1]期望属性!$F$27+N22*[1]期望属性!$F$28+O22*[1]期望属性!$F$29+P22*[1]期望属性!$F$33)</f>
+        <v>302</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <f ca="1">[1]时装!B70</f>
+        <v>0</v>
       </c>
       <c r="J23">
-        <f ca="1">[1]时装!B70</f>
+        <f ca="1">[1]时装!C70</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f ca="1">[1]时装!C70</f>
+        <f ca="1">[1]时装!D70</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f ca="1">[1]时装!D70</f>
+        <f ca="1">[1]时装!E70</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f ca="1">[1]时装!E70</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F70</f>
+        <v>2632</v>
       </c>
       <c r="N23">
-        <f ca="1">[1]时装!F70</f>
-        <v>12620</v>
+        <f ca="1">[1]时装!G70</f>
+        <v>0</v>
       </c>
       <c r="O23">
-        <f ca="1">[1]时装!G70</f>
-        <v>0</v>
+        <f ca="1">[1]时装!H70</f>
+        <v>293</v>
       </c>
       <c r="P23">
-        <f ca="1">[1]时装!H70</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I70</f>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <f ca="1">[1]时装!I70</f>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f ca="1">INT(J23*[1]期望属性!$F$23+K23*[1]期望属性!$F$24+L23*[1]期望属性!$F$25+M23*[1]期望属性!$F$26+N23*[1]期望属性!$F$27+O23*[1]期望属性!$F$28+P23*[1]期望属性!$F$29+Q23*[1]期望属性!$F$33)</f>
-        <v>2215</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23">
+        <f ca="1">INT(I23*[1]期望属性!$F$23+J23*[1]期望属性!$F$25+K23*[1]期望属性!$F$24+L23*[1]期望属性!$F$26+M23*[1]期望属性!$F$27+N23*[1]期望属性!$F$28+O23*[1]期望属性!$F$29+P23*[1]期望属性!$F$33)</f>
+        <v>288</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>404</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
+      <c r="E24">
+        <v>4</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <f ca="1">[1]时装!B71</f>
+        <v>0</v>
       </c>
       <c r="J24">
-        <f ca="1">[1]时装!B71</f>
+        <f ca="1">[1]时装!C71</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f ca="1">[1]时装!C71</f>
+        <f ca="1">[1]时装!D71</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f ca="1">[1]时装!D71</f>
+        <f ca="1">[1]时装!E71</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f ca="1">[1]时装!E71</f>
-        <v>0</v>
+        <f ca="1">[1]时装!F71</f>
+        <v>3948</v>
       </c>
       <c r="N24">
-        <f ca="1">[1]时装!F71</f>
-        <v>18930</v>
-      </c>
-      <c r="O24">
         <f ca="1">[1]时装!G71</f>
         <v>5</v>
       </c>
+      <c r="O24">
+        <f ca="1">[1]时装!H71</f>
+        <v>293</v>
+      </c>
       <c r="P24">
-        <f ca="1">[1]时装!H71</f>
-        <v>397</v>
+        <f ca="1">[1]时装!I71</f>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <f ca="1">[1]时装!I71</f>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f ca="1">INT(J24*[1]期望属性!$F$23+K24*[1]期望属性!$F$24+L24*[1]期望属性!$F$25+M24*[1]期望属性!$F$26+N24*[1]期望属性!$F$27+O24*[1]期望属性!$F$28+P24*[1]期望属性!$F$29+Q24*[1]期望属性!$F$33)</f>
-        <v>2930</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24">
+        <f ca="1">INT(I24*[1]期望属性!$F$23+J24*[1]期望属性!$F$25+K24*[1]期望属性!$F$24+L24*[1]期望属性!$F$26+M24*[1]期望属性!$F$27+N24*[1]期望属性!$F$28+O24*[1]期望属性!$F$29+P24*[1]期望属性!$F$33)</f>
+        <v>509</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>405</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I25">
-        <v>3000</v>
+        <f ca="1">[1]时装!B72</f>
+        <v>246</v>
       </c>
       <c r="J25">
-        <f ca="1">[1]时装!B72</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!C72</f>
+        <v>246</v>
       </c>
       <c r="K25">
-        <f ca="1">[1]时装!C72</f>
-        <v>1668</v>
+        <f ca="1">[1]时装!D72</f>
+        <v>0</v>
       </c>
       <c r="L25">
-        <f ca="1">[1]时装!D72</f>
+        <f ca="1">[1]时装!E72</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f ca="1">[1]时装!E72</f>
+        <f ca="1">[1]时装!F72</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f ca="1">[1]时装!F72</f>
+        <f ca="1">[1]时装!G72</f>
         <v>0</v>
       </c>
       <c r="O25">
-        <f ca="1">[1]时装!G72</f>
+        <f ca="1">[1]时装!H72</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f ca="1">[1]时装!H72</f>
-        <v>0</v>
+        <f ca="1">[1]时装!I72</f>
+        <v>413</v>
       </c>
       <c r="Q25">
-        <f ca="1">[1]时装!I72</f>
-        <v>417</v>
-      </c>
-      <c r="R25">
-        <f ca="1">INT(J25*[1]期望属性!$F$23+K25*[1]期望属性!$F$24+L25*[1]期望属性!$F$25+M25*[1]期望属性!$F$26+N25*[1]期望属性!$F$27+O25*[1]期望属性!$F$28+P25*[1]期望属性!$F$29+Q25*[1]期望属性!$F$33)</f>
-        <v>5421</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25">
+        <f ca="1">INT(I25*[1]期望属性!$F$23+J25*[1]期望属性!$F$25+K25*[1]期望属性!$F$24+L25*[1]期望属性!$F$26+M25*[1]期望属性!$F$27+N25*[1]期望属性!$F$28+O25*[1]期望属性!$F$29+P25*[1]期望属性!$F$33)</f>
+        <v>848</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>406</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>62</v>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I26">
-        <v>5000</v>
+        <f ca="1">[1]时装!B73</f>
+        <v>0</v>
       </c>
       <c r="J26">
-        <f ca="1">[1]时装!B73</f>
+        <f ca="1">[1]时装!C73</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f ca="1">[1]时装!C73</f>
-        <v>0</v>
+        <f ca="1">[1]时装!D73</f>
+        <v>136.5</v>
       </c>
       <c r="L26">
-        <f ca="1">[1]时装!D73</f>
-        <v>930</v>
+        <f ca="1">[1]时装!E73</f>
+        <v>136.5</v>
       </c>
       <c r="M26">
-        <f ca="1">[1]时装!E73</f>
-        <v>930</v>
+        <f ca="1">[1]时装!F73</f>
+        <v>5922</v>
       </c>
       <c r="N26">
-        <f ca="1">[1]时装!F73</f>
-        <v>28395</v>
+        <f ca="1">[1]时装!G73</f>
+        <v>0</v>
       </c>
       <c r="O26">
-        <f ca="1">[1]时装!G73</f>
+        <f ca="1">[1]时装!H73</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f ca="1">[1]时装!H73</f>
+        <f ca="1">[1]时装!I73</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f ca="1">[1]时装!I73</f>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f ca="1">INT(J26*[1]期望属性!$F$23+K26*[1]期望属性!$F$24+L26*[1]期望属性!$F$25+M26*[1]期望属性!$F$26+N26*[1]期望属性!$F$27+O26*[1]期望属性!$F$28+P26*[1]期望属性!$F$29+Q26*[1]期望属性!$F$33)</f>
-        <v>2453</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U26">
+        <f ca="1">INT(I26*[1]期望属性!$F$23+J26*[1]期望属性!$F$25+K26*[1]期望属性!$F$24+L26*[1]期望属性!$F$26+M26*[1]期望属性!$F$27+N26*[1]期望属性!$F$28+O26*[1]期望属性!$F$29+P26*[1]期望属性!$F$33)</f>
+        <v>561</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5241,21 +4925,19 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5269,44 +4951,38 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5356,36 +5032,30 @@
         <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5393,151 +5063,139 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="I3">
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
         <v>50</v>
       </c>
-      <c r="N3">
+      <c r="M3">
         <v>500</v>
       </c>
-      <c r="R3">
-        <f>J3+K3+L3+M3+N3+O3+P3+Q3</f>
+      <c r="Q3">
+        <f>I3+J3+K3+L3+M3+N3+O3+P3</f>
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>50</v>
       </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
       <c r="L4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
         <v>1000</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R6" si="0">J4+K4+L4+M4+N4+O4+P4+Q4</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q6" si="0">I4+J4+K4+L4+M4+N4+O4+P4</f>
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>3</v>
+      <c r="I5">
+        <v>300</v>
       </c>
       <c r="J5">
-        <v>300</v>
-      </c>
-      <c r="K5">
         <v>150</v>
       </c>
-      <c r="N5">
+      <c r="M5">
         <v>1500</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
         <v>50</v>
       </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
       <c r="L6">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M6">
-        <v>250</v>
-      </c>
-      <c r="N6">
         <v>2500</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>3250</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="71.25" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
